--- a/Fichiers Pertinents/Avancement Apex.xlsx
+++ b/Fichiers Pertinents/Avancement Apex.xlsx
@@ -622,8 +622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,9 +922,9 @@
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Fichiers Pertinents/Avancement Apex.xlsx
+++ b/Fichiers Pertinents/Avancement Apex.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>Table</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Validations</t>
   </si>
   <si>
-    <t>Paufinage</t>
-  </si>
-  <si>
     <t>Camisoles</t>
   </si>
   <si>
@@ -156,6 +153,15 @@
   </si>
   <si>
     <t>205-215</t>
+  </si>
+  <si>
+    <t>Fonctionnalité particulière</t>
+  </si>
+  <si>
+    <t>Sur calendrier</t>
+  </si>
+  <si>
+    <t>Date estimée</t>
   </si>
 </sst>
 </file>
@@ -620,23 +626,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:E28"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -648,108 +655,113 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>390</v>
@@ -757,186 +769,188 @@
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="8"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
       <c r="E28" s="12"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="8"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Fichiers Pertinents/Avancement Apex.xlsx
+++ b/Fichiers Pertinents/Avancement Apex.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -177,18 +177,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -199,6 +193,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,17 +341,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,7 +635,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,10 +674,10 @@
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="5"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -680,28 +686,28 @@
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="G3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -709,10 +715,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="G6" s="8"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -721,10 +727,10 @@
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -733,19 +739,19 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="G8" s="8"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="8"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -754,10 +760,10 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="G10" s="8"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -766,10 +772,10 @@
       <c r="B11">
         <v>390</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -778,28 +784,28 @@
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="G14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -808,19 +814,19 @@
       <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="G15" s="8"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="G16" s="8"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -829,37 +835,37 @@
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="7"/>
-      <c r="G17" s="8"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="G18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="G19" s="8"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="G20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -868,19 +874,19 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="G21" s="8"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="G21" s="7"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="G22" s="8" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="G22" s="7" t="s">
         <v>44</v>
       </c>
     </row>
@@ -888,37 +894,37 @@
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="G23" s="8"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="G24" s="8"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="G25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="G25" s="7"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="G26" s="8"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -927,28 +933,28 @@
       <c r="B27" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="G27" s="8"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="G28" s="8"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="G29" s="10"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Fichiers Pertinents/Avancement Apex.xlsx
+++ b/Fichiers Pertinents/Avancement Apex.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1425165\Desktop\projetapex\Fichiers Pertinents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1470001\Desktop\projetapex\Fichiers Pertinents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Table</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>Date estimée</t>
+  </si>
+  <si>
+    <t>510-520</t>
+  </si>
+  <si>
+    <t>Sécurité et compte</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,12 +204,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -337,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -349,9 +349,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,7 +634,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,10 +694,15 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -823,6 +827,9 @@
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B16">
+        <v>300</v>
+      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
@@ -844,18 +851,24 @@
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="B18">
+        <v>300</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="B19">
+        <v>300</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
       <c r="G19" s="7"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -951,9 +964,9 @@
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
       <c r="G29" s="8"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Fichiers Pertinents/Avancement Apex.xlsx
+++ b/Fichiers Pertinents/Avancement Apex.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1470001\Desktop\projetapex\Fichiers Pertinents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1425165\Desktop\projetapex\Fichiers Pertinents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -337,14 +337,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -634,7 +633,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,9 +672,9 @@
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -685,10 +684,10 @@
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="G3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -697,10 +696,10 @@
       <c r="B4" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="6" t="s">
         <v>47</v>
       </c>
     </row>
@@ -708,10 +707,10 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -719,10 +718,10 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="G6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -731,10 +730,10 @@
       <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="G7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -743,19 +742,19 @@
       <c r="B8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="7"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -764,10 +763,10 @@
       <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="G10" s="7"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -776,10 +775,10 @@
       <c r="B11">
         <v>390</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="G11" s="7"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -788,28 +787,28 @@
       <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="G12" s="7"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="G13" s="7"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="7"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
@@ -818,10 +817,10 @@
       <c r="B15" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="G15" s="7"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -830,10 +829,10 @@
       <c r="B16">
         <v>300</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="G16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -842,10 +841,10 @@
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="G17" s="7"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -854,10 +853,10 @@
       <c r="B18">
         <v>300</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="G18" s="7"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -866,19 +865,19 @@
       <c r="B19">
         <v>300</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="G19" s="7"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="G20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -887,19 +886,19 @@
       <c r="B21" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="G21" s="7"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="G22" s="7" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="G22" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -907,37 +906,37 @@
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="G24" s="7"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="G26" s="7"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -946,28 +945,28 @@
       <c r="B27" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="G27" s="7"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="G28" s="7"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="G29" s="8"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
